--- a/RUDN/Importance/Varible_in_Central America.xlsx
+++ b/RUDN/Importance/Varible_in_Central America.xlsx
@@ -14,999 +14,1026 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
     <t>Employers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
   </si>
   <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Children in employment, female (% of female children ages 7-14)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01655380055308342</v>
+        <v>0.02457551471889019</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1388,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01354401838034391</v>
+        <v>0.01563896425068378</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1396,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01354401838034391</v>
+        <v>0.01340482570230961</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1404,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01354401838034391</v>
+        <v>0.01340482570230961</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1412,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01279157306998968</v>
+        <v>0.01295799855142832</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1420,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01128668151795864</v>
+        <v>0.01251117046922445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1428,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01128668151795864</v>
+        <v>0.01251117046922445</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1436,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01128668151795864</v>
+        <v>0.0116175152361393</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1444,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01128668151795864</v>
+        <v>0.0116175152361393</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1452,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01053423620760441</v>
+        <v>0.0116175152361393</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1460,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01053423620760441</v>
+        <v>0.01117068808525801</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1468,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01053423620760441</v>
+        <v>0.01072386093437672</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1476,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.009029345586895943</v>
+        <v>0.01072386093437672</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1484,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.009029345586895943</v>
+        <v>0.01072386093437672</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1492,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.00827690027654171</v>
+        <v>0.009830205701291561</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1500,7 +1527,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.00827690027654171</v>
+        <v>0.009830205701291561</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1508,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.00827690027654171</v>
+        <v>0.009383377619087696</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1516,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.00827690027654171</v>
+        <v>0.008936550468206406</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1524,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.00827690027654171</v>
+        <v>0.008936550468206406</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1532,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.00827690027654171</v>
+        <v>0.008936550468206406</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1540,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00752445450052619</v>
+        <v>0.008936550468206406</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1548,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.00752445450052619</v>
+        <v>0.008936550468206406</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1556,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.00752445450052619</v>
+        <v>0.008936550468206406</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1564,7 +1591,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.00752445450052619</v>
+        <v>0.008489723317325115</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1572,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.00752445450052619</v>
+        <v>0.008489723317325115</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1580,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.006772009190171957</v>
+        <v>0.00804289523512125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1588,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.006772009190171957</v>
+        <v>0.00759606808423996</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1596,7 +1623,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.006772009190171957</v>
+        <v>0.007149240467697382</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1604,7 +1631,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.006772009190171957</v>
+        <v>0.007149240467697382</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1612,7 +1639,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.006772009190171957</v>
+        <v>0.007149240467697382</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1620,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.006019563414156437</v>
+        <v>0.007149240467697382</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1628,7 +1655,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1636,7 +1663,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1644,7 +1671,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1652,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1660,7 +1687,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1668,7 +1695,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1676,7 +1703,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1684,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1692,7 +1719,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.006019563414156437</v>
+        <v>0.006702412851154804</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1700,7 +1727,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.005267118103802204</v>
+        <v>0.006255585234612226</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1708,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.005267118103802204</v>
+        <v>0.006255585234612226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1716,7 +1743,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.005267118103802204</v>
+        <v>0.006255585234612226</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1724,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.005267118103802204</v>
+        <v>0.005808757618069649</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1732,7 +1759,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.005267118103802204</v>
+        <v>0.005808757618069649</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1740,7 +1767,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005267118103802204</v>
+        <v>0.005808757618069649</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1748,7 +1775,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005267118103802204</v>
+        <v>0.005808757618069649</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1756,7 +1783,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005267118103802204</v>
+        <v>0.005808757618069649</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1764,7 +1791,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.005267118103802204</v>
+        <v>0.005361930467188358</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1772,7 +1799,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005267118103802204</v>
+        <v>0.005361930467188358</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1780,7 +1807,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.005267118103802204</v>
+        <v>0.005361930467188358</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1788,7 +1815,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.005267118103802204</v>
+        <v>0.005361930467188358</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1796,7 +1823,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005267118103802204</v>
+        <v>0.005361930467188358</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1804,7 +1831,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.005267118103802204</v>
+        <v>0.005361930467188358</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1812,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005267118103802204</v>
+        <v>0.005361930467188358</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1820,7 +1847,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005267118103802204</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1828,7 +1855,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.005267118103802204</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1836,7 +1863,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.005267118103802204</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1844,7 +1871,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.005267118103802204</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1852,7 +1879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.005267118103802204</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1860,7 +1887,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.005267118103802204</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1868,7 +1895,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.005267118103802204</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1876,7 +1903,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.004514672793447971</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1884,7 +1911,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.004514672793447971</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1892,7 +1919,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004514672793447971</v>
+        <v>0.004915102850645781</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1900,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1908,7 +1935,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1916,7 +1943,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1924,7 +1951,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1932,7 +1959,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1940,7 +1967,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1948,7 +1975,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1956,7 +1983,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1964,7 +1991,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1972,7 +1999,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004514672793447971</v>
+        <v>0.004468275234103203</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1980,7 +2007,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.004514672793447971</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1988,7 +2015,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004514672793447971</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1996,7 +2023,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.004514672793447971</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2004,7 +2031,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.004514672793447971</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2012,7 +2039,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.004514672793447971</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2020,7 +2047,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003762227250263095</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2028,7 +2055,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003762227250263095</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2036,7 +2063,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003762227250263095</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2044,7 +2071,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003762227250263095</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2052,7 +2079,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003762227250263095</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2060,7 +2087,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003762227250263095</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2068,7 +2095,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003762227250263095</v>
+        <v>0.004021447617560625</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2076,7 +2103,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2084,7 +2111,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2092,7 +2119,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2100,7 +2127,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2108,7 +2135,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2116,7 +2143,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2124,7 +2151,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2132,7 +2159,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2140,7 +2167,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2148,7 +2175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2156,7 +2183,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2164,7 +2191,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2172,7 +2199,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2180,7 +2207,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2188,7 +2215,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2196,7 +2223,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2204,7 +2231,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2212,7 +2239,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2220,7 +2247,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.003762227250263095</v>
+        <v>0.003574620233848691</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2228,7 +2255,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2236,7 +2263,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2244,7 +2271,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2252,7 +2279,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2260,7 +2287,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2268,7 +2295,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2276,7 +2303,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2284,7 +2311,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2292,7 +2319,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2300,7 +2327,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2308,7 +2335,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2316,7 +2343,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2324,7 +2351,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.003009781707078218</v>
+        <v>0.003127792617306113</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2332,7 +2359,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2340,7 +2367,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2348,7 +2375,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2356,7 +2383,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2364,7 +2391,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2372,7 +2399,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2380,7 +2407,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2388,7 +2415,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2396,7 +2423,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2404,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2412,7 +2439,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2420,7 +2447,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2428,7 +2455,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2436,7 +2463,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2444,7 +2471,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.003009781707078218</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2452,7 +2479,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2460,7 +2487,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2468,7 +2495,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2476,7 +2503,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2484,7 +2511,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2492,7 +2519,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2500,7 +2527,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2508,7 +2535,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2516,7 +2543,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.002257336396723986</v>
+        <v>0.002680965233594179</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2524,7 +2551,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2532,7 +2559,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2540,7 +2567,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2548,7 +2575,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2556,7 +2583,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2564,7 +2591,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2572,7 +2599,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2580,7 +2607,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2588,7 +2615,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2596,7 +2623,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2604,7 +2631,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2612,7 +2639,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2620,7 +2647,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2628,7 +2655,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2636,7 +2663,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2644,7 +2671,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2652,7 +2679,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2660,7 +2687,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2668,7 +2695,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2676,7 +2703,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2684,7 +2711,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.002257336396723986</v>
+        <v>0.002234137617051601</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2692,7 +2719,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2700,7 +2727,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2708,7 +2735,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2716,7 +2743,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2724,7 +2751,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2732,7 +2759,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2740,7 +2767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2748,7 +2775,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2756,7 +2783,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2764,7 +2791,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2772,7 +2799,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2780,7 +2807,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2788,7 +2815,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2796,7 +2823,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2804,7 +2831,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2812,7 +2839,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2820,7 +2847,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2828,7 +2855,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2836,7 +2863,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2844,7 +2871,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2852,7 +2879,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2860,7 +2887,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.002257336396723986</v>
+        <v>0.001787310116924345</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2868,7 +2895,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.002257336396723986</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2876,7 +2903,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.002257336396723986</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2884,7 +2911,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.002257336396723986</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2892,7 +2919,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.002257336396723986</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2900,7 +2927,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2908,7 +2935,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2916,7 +2943,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2924,7 +2951,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2932,7 +2959,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2940,7 +2967,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2948,7 +2975,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2956,7 +2983,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2964,7 +2991,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2972,7 +2999,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2980,7 +3007,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2988,7 +3015,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2996,7 +3023,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3004,7 +3031,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3012,7 +3039,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3020,7 +3047,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3028,7 +3055,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3036,7 +3063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3044,7 +3071,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3052,7 +3079,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3060,7 +3087,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3068,7 +3095,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3076,7 +3103,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3084,7 +3111,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3092,7 +3119,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3100,7 +3127,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3108,7 +3135,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3116,7 +3143,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3124,7 +3151,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3132,7 +3159,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3140,7 +3167,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3148,7 +3175,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3156,7 +3183,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3164,7 +3191,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3172,7 +3199,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3180,7 +3207,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.001504890853539109</v>
+        <v>0.00134048261679709</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3188,7 +3215,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3196,7 +3223,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3204,7 +3231,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3212,7 +3239,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3220,7 +3247,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3228,7 +3255,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3236,7 +3263,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3244,7 +3271,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3252,7 +3279,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3260,7 +3287,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3268,7 +3295,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3276,7 +3303,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3284,7 +3311,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3292,7 +3319,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3300,7 +3327,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3308,7 +3335,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3316,7 +3343,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3324,7 +3351,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3332,7 +3359,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3340,7 +3367,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.001504890853539109</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3348,7 +3375,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3356,7 +3383,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3364,7 +3391,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3372,7 +3399,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3380,7 +3407,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3388,7 +3415,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3396,7 +3423,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3404,7 +3431,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3412,7 +3439,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3420,7 +3447,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3428,7 +3455,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3436,7 +3463,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3444,7 +3471,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3452,7 +3479,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3460,7 +3487,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3468,7 +3495,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3476,7 +3503,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3484,7 +3511,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3492,7 +3519,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3500,7 +3527,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3508,7 +3535,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3516,7 +3543,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3524,7 +3551,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3532,7 +3559,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3540,7 +3567,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3548,7 +3575,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3556,7 +3583,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3564,7 +3591,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.0007524454267695546</v>
+        <v>0.0008936550584621727</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3572,7 +3599,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3580,7 +3607,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3588,7 +3615,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3596,7 +3623,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3604,7 +3631,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3612,7 +3639,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3620,7 +3647,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3628,7 +3655,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3636,7 +3663,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3644,7 +3671,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3652,7 +3679,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3660,7 +3687,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3668,7 +3695,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3676,7 +3703,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3684,7 +3711,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3692,7 +3719,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3700,7 +3727,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3708,7 +3735,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3716,7 +3743,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3724,7 +3751,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3732,7 +3759,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3740,7 +3767,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3748,7 +3775,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3756,7 +3783,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3764,7 +3791,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3772,7 +3799,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3780,7 +3807,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3788,7 +3815,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3796,7 +3823,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3804,7 +3831,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3812,7 +3839,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3820,7 +3847,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3828,7 +3855,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3836,7 +3863,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3844,7 +3871,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3852,7 +3879,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3860,7 +3887,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3868,7 +3895,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3876,7 +3903,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3884,7 +3911,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3892,7 +3919,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3900,7 +3927,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3908,7 +3935,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3916,7 +3943,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3924,7 +3951,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3932,7 +3959,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3940,7 +3967,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3948,7 +3975,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3956,7 +3983,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3964,7 +3991,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3972,7 +3999,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3980,7 +4007,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3988,7 +4015,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3996,7 +4023,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4004,7 +4031,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4012,7 +4039,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4020,7 +4047,79 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.0007524454267695546</v>
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.0004468275292310864</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.0004468275292310864</v>
       </c>
     </row>
   </sheetData>
